--- a/Team-Data/2020-21/12-24-2020-21.xlsx
+++ b/Team-Data/2020-21/12-24-2020-21.xlsx
@@ -898,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-24-2020-21</t>
+          <t>2020-12-24</t>
         </is>
       </c>
     </row>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-24-2020-21</t>
+          <t>2020-12-24</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-24-2020-21</t>
+          <t>2020-12-24</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-24-2020-21</t>
+          <t>2020-12-24</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-24-2020-21</t>
+          <t>2020-12-24</t>
         </is>
       </c>
     </row>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-24-2020-21</t>
+          <t>2020-12-24</t>
         </is>
       </c>
     </row>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-24-2020-21</t>
+          <t>2020-12-24</t>
         </is>
       </c>
     </row>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-24-2020-21</t>
+          <t>2020-12-24</t>
         </is>
       </c>
     </row>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-24-2020-21</t>
+          <t>2020-12-24</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-24-2020-21</t>
+          <t>2020-12-24</t>
         </is>
       </c>
     </row>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-24-2020-21</t>
+          <t>2020-12-24</t>
         </is>
       </c>
     </row>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-24-2020-21</t>
+          <t>2020-12-24</t>
         </is>
       </c>
     </row>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-24-2020-21</t>
+          <t>2020-12-24</t>
         </is>
       </c>
     </row>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-24-2020-21</t>
+          <t>2020-12-24</t>
         </is>
       </c>
     </row>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-24-2020-21</t>
+          <t>2020-12-24</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-24-2020-21</t>
+          <t>2020-12-24</t>
         </is>
       </c>
     </row>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-24-2020-21</t>
+          <t>2020-12-24</t>
         </is>
       </c>
     </row>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-24-2020-21</t>
+          <t>2020-12-24</t>
         </is>
       </c>
     </row>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-24-2020-21</t>
+          <t>2020-12-24</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-24-2020-21</t>
+          <t>2020-12-24</t>
         </is>
       </c>
     </row>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-24-2020-21</t>
+          <t>2020-12-24</t>
         </is>
       </c>
     </row>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-24-2020-21</t>
+          <t>2020-12-24</t>
         </is>
       </c>
     </row>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-24-2020-21</t>
+          <t>2020-12-24</t>
         </is>
       </c>
     </row>
@@ -5084,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-24-2020-21</t>
+          <t>2020-12-24</t>
         </is>
       </c>
     </row>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-24-2020-21</t>
+          <t>2020-12-24</t>
         </is>
       </c>
     </row>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-24-2020-21</t>
+          <t>2020-12-24</t>
         </is>
       </c>
     </row>
@@ -5630,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-24-2020-21</t>
+          <t>2020-12-24</t>
         </is>
       </c>
     </row>
@@ -5812,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-24-2020-21</t>
+          <t>2020-12-24</t>
         </is>
       </c>
     </row>
